--- a/medicine/Enfance/L'Archipel_de_la_terreur/L'Archipel_de_la_terreur.xlsx
+++ b/medicine/Enfance/L'Archipel_de_la_terreur/L'Archipel_de_la_terreur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Archipel_de_la_terreur</t>
+          <t>L'Archipel_de_la_terreur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Archipel de la terreur est le 108e roman de la série Bob Morane, écrit par Henri Vernes et publié en 1971 par les éditions Gérard et Cie, puis dans la collection Pocket Marabout.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Archipel_de_la_terreur</t>
+          <t>L'Archipel_de_la_terreur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'avion de ligne du vol 322 est détourné de sa destination (Papeete) et dirigé vers le pôle sud, en direction d'un archipel désolé du Pacifique sud. Dans cet appareil, Bill Ballantine et Sophia Paramount. Le pilote explique la situation étrange aux contrôleurs aériens, puis les contacts sont coupés. 
 Bob Morane est contacté par un organisme gouvernemental pour aller, en éclaireur, vers cet archipel pour faire la lumière sur cet étrange détournement d'avion. 
